--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2318301_cognizant_com/Documents/Book_Shelf_Project/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{E4A73922-1A3C-4AAC-96C9-9CDD2E64DA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="14_{E4A73922-1A3C-4AAC-96C9-9CDD2E64DA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{694A9D17-52E4-451A-83A9-87B82955BDEC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>Website Link</t>
-  </si>
-  <si>
-    <t>To Search</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Amount</t>
   </si>
@@ -46,12 +40,6 @@
   </si>
   <si>
     <t>Pincode</t>
-  </si>
-  <si>
-    <t>https://www.urbanladder.com</t>
-  </si>
-  <si>
-    <t>Bookshelves</t>
   </si>
   <si>
     <t>Ram</t>
@@ -485,130 +473,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.08984375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="2">
+        <v>9876543210</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="2">
+        <v>9876543201</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
-        <v>9876543210</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2">
+        <v>600001</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="2">
-        <v>9876543201</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="2">
-        <v>600001</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{97E902C3-33A3-4FA6-8EFD-7F111858D250}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{D8941DBC-0052-4EE8-9098-94803C88D013}"/>
-    <hyperlink ref="I2" r:id="rId3" xr:uid="{527BA01F-F64E-43BF-BB72-09161C4879CA}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D8941DBC-0052-4EE8-9098-94803C88D013}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{527BA01F-F64E-43BF-BB72-09161C4879CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -3,29 +3,40 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2318301_cognizant_com/Documents/Book_Shelf_Project/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="14_{E4A73922-1A3C-4AAC-96C9-9CDD2E64DA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{694A9D17-52E4-451A-83A9-87B82955BDEC}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="14_{E4A73922-1A3C-4AAC-96C9-9CDD2E64DA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{504435BA-87BF-448B-A611-D8208582860C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UrbanLadder" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
   <si>
     <t>Amount</t>
   </si>
@@ -51,19 +62,10 @@
     <t>Raju</t>
   </si>
   <si>
-    <t>raju@gmail.com</t>
-  </si>
-  <si>
     <t>rajugmail.com</t>
   </si>
   <si>
     <t>Chennai</t>
-  </si>
-  <si>
-    <t>Gift</t>
-  </si>
-  <si>
-    <t>pass</t>
   </si>
   <si>
     <t>Recipient's
@@ -90,19 +92,154 @@
  Email </t>
   </si>
   <si>
-    <t xml:space="preserve">Correct 
-Email </t>
-  </si>
-  <si>
     <t>Your 
 Mobile</t>
+  </si>
+  <si>
+    <t>Aarav</t>
+  </si>
+  <si>
+    <t>Dhruv</t>
+  </si>
+  <si>
+    <t>Samar</t>
+  </si>
+  <si>
+    <t>Arjun </t>
+  </si>
+  <si>
+    <t>Ishaan </t>
+  </si>
+  <si>
+    <t>Karan </t>
+  </si>
+  <si>
+    <t>Nikhil </t>
+  </si>
+  <si>
+    <t>Rohan </t>
+  </si>
+  <si>
+    <t>Vivaan </t>
+  </si>
+  <si>
+    <t>Yash </t>
+  </si>
+  <si>
+    <t>aarav@gmail.com</t>
+  </si>
+  <si>
+    <t>arjun@gmail.com</t>
+  </si>
+  <si>
+    <t>ishaan@gmail.com</t>
+  </si>
+  <si>
+    <t>karan@gmail.com</t>
+  </si>
+  <si>
+    <t>nikhil@gmail.com</t>
+  </si>
+  <si>
+    <t>rohan@gmail.com</t>
+  </si>
+  <si>
+    <t>samar@gmail.com</t>
+  </si>
+  <si>
+    <t>vivaan@gmail.com</t>
+  </si>
+  <si>
+    <t>yash@gmail.com</t>
+  </si>
+  <si>
+    <t>ahruv@gmail.com</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Aaradhya</t>
+  </si>
+  <si>
+    <t>Bhavna</t>
+  </si>
+  <si>
+    <t>Neha</t>
+  </si>
+  <si>
+    <t>Aanya </t>
+  </si>
+  <si>
+    <t>Aditi </t>
+  </si>
+  <si>
+    <t>Advika </t>
+  </si>
+  <si>
+    <t>Charvi </t>
+  </si>
+  <si>
+    <t>Ishani </t>
+  </si>
+  <si>
+    <t>Kavya </t>
+  </si>
+  <si>
+    <t>Priya </t>
+  </si>
+  <si>
+    <t>Aanya@gmail.com</t>
+  </si>
+  <si>
+    <t>advika@gmail.com</t>
+  </si>
+  <si>
+    <t>bhavna@gmail.com</t>
+  </si>
+  <si>
+    <t>charvi@gmail.com</t>
+  </si>
+  <si>
+    <t>Ishani@gmail.com </t>
+  </si>
+  <si>
+    <t>Kavya@gmail.com </t>
+  </si>
+  <si>
+    <t>neha@gmail.com</t>
+  </si>
+  <si>
+    <t>priya@gmail.com </t>
+  </si>
+  <si>
+    <t>aditi@gmail.com</t>
+  </si>
+  <si>
+    <t>aaradhya@gmail.com</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,8 +263,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF111111"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +303,38 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
   </fills>
@@ -175,23 +366,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -473,117 +698,504 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.453125" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.08984375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.08984375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7265625"/>
+    <col min="5" max="5" customWidth="true" width="10.36328125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.1796875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.7265625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.6328125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.81640625"/>
+    <col min="11" max="11" customWidth="true" width="14.36328125"/>
+    <col min="12" max="12" customWidth="true" width="18.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.08984375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="8.453125"/>
+    <col min="15" max="15" customWidth="true" width="9.453125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8">
+        <v>9876543200</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="8">
+        <v>9876543210</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="7">
+        <v>600001</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s" s="24">
+        <v>62</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="C3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="8">
+        <v>9876543201</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="8">
+        <v>9876543211</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="7">
+        <v>600002</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" t="s" s="25">
+        <v>61</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="8">
+        <v>9876543202</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="8">
+        <v>9876543212</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>600003</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4000</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="C5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="8">
+        <v>9876543203</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="8">
+        <v>9876543213</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="7">
+        <v>600004</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5000</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="8">
+        <v>9876543204</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="8">
+        <v>9876543214</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="7">
+        <v>600005</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6000</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8">
+        <v>9876543205</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="8">
+        <v>9876543215</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="7">
+        <v>600006</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="8">
+        <v>9876543206</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="8">
+        <v>9876543216</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="7">
+        <v>600007</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8000</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="8">
+        <v>9876543207</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="8">
+        <v>9876543217</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="7">
+        <v>600008</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9000</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="C10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="8">
+        <v>9876543208</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="8">
+        <v>9876543218</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="7">
+        <v>600009</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2">
+    <row r="11" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="8">
+        <v>9876543209</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="8">
+        <v>9876543219</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="7">
+        <v>600010</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="8">
         <v>9876543210</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="8">
+        <v>9876543220</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2">
-        <v>9876543201</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2">
-        <v>600001</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="2"/>
+      <c r="I12" s="7">
+        <v>600011</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{D8941DBC-0052-4EE8-9098-94803C88D013}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{527BA01F-F64E-43BF-BB72-09161C4879CA}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{929CA000-2A46-433C-AFBA-158D21AE6088}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{E6F8E01A-0BAD-47A3-BD1D-216972E63DDE}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{657B8E38-25D1-4EC5-BDDB-AC143D2BAA46}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{0EF958CF-2EB4-464B-931A-7BBD4CBABEA8}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{3C5857E3-A82C-4CDF-BCFE-568134711D5E}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{400D1C5C-EBB7-4A56-8F64-86EF10670A3C}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{5FA188EB-8F49-495C-8736-1E1F7E55D2B7}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{3EF01E60-4F2A-4F54-ABA1-7E0775E377FB}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{F9165A6A-7371-447A-B905-09763475F639}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{5578A063-5611-4FF5-BF8F-6758F9E3EA80}"/>
+    <hyperlink ref="F3" r:id="rId12" xr:uid="{4C09C9F5-FDDE-4D9D-B0FF-12453A5C9AF8}"/>
+    <hyperlink ref="F4" r:id="rId13" xr:uid="{49804CC0-5F1D-46FB-8E0F-D457DC67F792}"/>
+    <hyperlink ref="F6" r:id="rId14" xr:uid="{18724C8B-FEDF-4D99-BFF0-B0C03AB21DE3}"/>
+    <hyperlink ref="F5" r:id="rId15" xr:uid="{6E8D5C5D-8F96-49DF-8556-97D0B2A5F3C6}"/>
+    <hyperlink ref="F7" r:id="rId16" xr:uid="{C08ED9A7-31C4-47F4-88B5-9939697E8DCE}"/>
+    <hyperlink ref="F8" r:id="rId17" xr:uid="{0BA91459-AE7E-4292-AB56-628E98EE01FF}"/>
+    <hyperlink ref="F9" r:id="rId18" xr:uid="{83991936-E8D3-40EE-A1EE-32D5EEC9F6E9}"/>
+    <hyperlink ref="F10" r:id="rId19" xr:uid="{54782114-4843-4A36-A86D-CE52AC85BDD6}"/>
+    <hyperlink ref="F11" r:id="rId20" xr:uid="{B996BC53-5287-45F5-91FC-A16C19F27E00}"/>
+    <hyperlink ref="F12" r:id="rId21" xr:uid="{90F0304D-E941-49AE-A8E4-59BA2F6ECAC7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
   <si>
     <t>Amount</t>
   </si>
@@ -366,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -409,6 +409,10 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
@@ -795,7 +799,7 @@
       <c r="K2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L2" t="s" s="24">
+      <c r="L2" t="s" s="28">
         <v>62</v>
       </c>
       <c r="M2" s="2"/>
@@ -834,7 +838,7 @@
       <c r="K3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="L3" t="s" s="25">
+      <c r="L3" t="s" s="29">
         <v>61</v>
       </c>
       <c r="M3" s="2"/>

--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
   <si>
     <t>Amount</t>
   </si>
@@ -366,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -409,6 +409,10 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
@@ -799,7 +803,7 @@
       <c r="K2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L2" t="s" s="28">
+      <c r="L2" t="s" s="32">
         <v>62</v>
       </c>
       <c r="M2" s="2"/>
@@ -838,7 +842,7 @@
       <c r="K3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="L3" t="s" s="29">
+      <c r="L3" t="s" s="33">
         <v>61</v>
       </c>
       <c r="M3" s="2"/>

--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
   <si>
     <t>Amount</t>
   </si>
@@ -366,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -409,6 +409,10 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
@@ -803,7 +807,7 @@
       <c r="K2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L2" t="s" s="32">
+      <c r="L2" t="s" s="36">
         <v>62</v>
       </c>
       <c r="M2" s="2"/>
@@ -842,7 +846,7 @@
       <c r="K3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="L3" t="s" s="33">
+      <c r="L3" t="s" s="37">
         <v>61</v>
       </c>
       <c r="M3" s="2"/>

--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="63">
   <si>
     <t>Amount</t>
   </si>
@@ -366,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -419,6 +419,24 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
@@ -807,7 +825,7 @@
       <c r="K2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L2" t="s" s="36">
+      <c r="L2" t="s" s="54">
         <v>62</v>
       </c>
       <c r="M2" s="2"/>
@@ -846,7 +864,7 @@
       <c r="K3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="L3" t="s" s="37">
+      <c r="L3" t="s" s="55">
         <v>61</v>
       </c>
       <c r="M3" s="2"/>
